--- a/reports/raw-views/assets/tables/meso_entropy.xlsx
+++ b/reports/raw-views/assets/tables/meso_entropy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,218 +456,190 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1070101</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1070101</v>
       </c>
       <c r="B2" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>3.839868406989795</v>
+        <v>3.730574109021787</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1070102</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1070102</v>
       </c>
       <c r="B3" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>3.470632864121907</v>
+        <v>3.395899785025341</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1070103</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1070103</v>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>3.888137241296204</v>
+        <v>3.738885690721036</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1070105</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1070105</v>
       </c>
       <c r="B5" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>3.871323497286341</v>
+        <v>3.776967896800968</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1070106</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1070106</v>
       </c>
       <c r="B6" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C6" t="n">
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>3.380248989071607</v>
+        <v>3.373726975279903</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1070107</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1070107</v>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C7" t="n">
         <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>3.202053208300984</v>
+        <v>3.235022757846946</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1070109</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1070109</v>
       </c>
       <c r="B8" t="n">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C8" t="n">
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>3.140206169667428</v>
+        <v>3.099996806626295</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1070110</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1070110</v>
       </c>
       <c r="B9" t="n">
+        <v>78</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.229625089929674</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>1070111</v>
+      </c>
+      <c r="B10" t="n">
         <v>90</v>
       </c>
-      <c r="C9" t="n">
-        <v>19</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.537697908315867</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1070111</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>102</v>
-      </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>3.1443454036909</v>
+        <v>3.148460368724786</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1070112</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1070112</v>
       </c>
       <c r="B11" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>3.892551219164416</v>
+        <v>3.718844667543639</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>1070113</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>1070113</v>
       </c>
       <c r="B12" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>3.712033469629519</v>
+        <v>3.445456566338086</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1070114</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>1070114</v>
       </c>
       <c r="B13" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>3.974834982231199</v>
+        <v>3.888915657198164</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1070115</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>1070115</v>
       </c>
       <c r="B14" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>3.914966580682645</v>
+        <v>3.866055430064424</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>1070117</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>1070117</v>
       </c>
       <c r="B15" t="n">
         <v>114</v>
@@ -680,746 +652,652 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>1080101</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>1080101</v>
       </c>
       <c r="B16" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C16" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.676785643756673</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>1080102</v>
+      </c>
+      <c r="B17" t="n">
+        <v>144</v>
+      </c>
+      <c r="C17" t="n">
         <v>23</v>
       </c>
-      <c r="D16" t="n">
-        <v>3.773832950098198</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>1080102</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>156</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24</v>
-      </c>
       <c r="D17" t="n">
-        <v>3.788553131546983</v>
+        <v>3.748594621083907</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1080103</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>1080103</v>
       </c>
       <c r="B18" t="n">
+        <v>72</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.368123827983719</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>1080104</v>
+      </c>
+      <c r="B19" t="n">
         <v>84</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>18</v>
       </c>
-      <c r="D18" t="n">
-        <v>3.64364837533721</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1080104</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>96</v>
-      </c>
-      <c r="C19" t="n">
-        <v>19</v>
-      </c>
       <c r="D19" t="n">
-        <v>3.706144739137613</v>
+        <v>3.664497779200461</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>1080105</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>1080105</v>
       </c>
       <c r="B20" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>2.778490914125231</v>
+        <v>2.640714588368398</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>1080106</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>1080106</v>
       </c>
       <c r="B21" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>3.2888512059874</v>
+        <v>3.270115848057856</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>1080107</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>1080107</v>
       </c>
       <c r="B22" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>3.818727318034221</v>
+        <v>3.742893650271258</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>1080108</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>1080108</v>
       </c>
       <c r="B23" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>3.845415475056631</v>
+        <v>3.781551077197631</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>1080109</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>1080109</v>
       </c>
       <c r="B24" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>3.231635965408375</v>
+        <v>3.10563041057955</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>1080110</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>1080110</v>
       </c>
       <c r="B25" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>3.506557575059834</v>
+        <v>3.523044800403813</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>1080111</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>1080111</v>
       </c>
       <c r="B26" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>3.528158592956497</v>
+        <v>3.45095747966054</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>1080112</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>1080112</v>
       </c>
       <c r="B27" t="n">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C27" t="n">
         <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>3.283162293238695</v>
+        <v>3.178506571657798</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>1080113</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>1080113</v>
       </c>
       <c r="B28" t="n">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C28" t="n">
         <v>21</v>
       </c>
       <c r="D28" t="n">
-        <v>3.006794290548881</v>
+        <v>3.020696490723373</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>1080114</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>1080114</v>
       </c>
       <c r="B29" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C29" t="n">
         <v>23</v>
       </c>
       <c r="D29" t="n">
-        <v>3.660555342465983</v>
+        <v>3.75555141814416</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1080201</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>1080201</v>
       </c>
       <c r="B30" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="n">
-        <v>3.268615768797074</v>
+        <v>3.408217612439179</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1080202</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>1080202</v>
       </c>
       <c r="B31" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>3.499153127192964</v>
+        <v>3.353217712620451</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>1080203</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>1080203</v>
       </c>
       <c r="B32" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="n">
-        <v>3.148933710419684</v>
+        <v>3.20193013713656</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>1080301</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>1080301</v>
       </c>
       <c r="B33" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C33" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>3.684900428586361</v>
+        <v>3.587582004007327</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>1080302</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>1080302</v>
       </c>
       <c r="B34" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>2.922986006434205</v>
+        <v>2.942513511676954</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>1080303</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>1080303</v>
       </c>
       <c r="B35" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>3.446130482053305</v>
+        <v>3.435422615150678</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>1080304</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>1080304</v>
       </c>
       <c r="B36" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C36" t="n">
         <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>3.668260647211005</v>
+        <v>3.682419172515418</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>1080305</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>1080305</v>
       </c>
       <c r="B37" t="n">
+        <v>60</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.427079685209599</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1080306</v>
+      </c>
+      <c r="B38" t="n">
+        <v>114</v>
+      </c>
+      <c r="C38" t="n">
+        <v>17</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.4343944616346</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1080307</v>
+      </c>
+      <c r="B39" t="n">
+        <v>90</v>
+      </c>
+      <c r="C39" t="n">
+        <v>19</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.834178415870657</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1080308</v>
+      </c>
+      <c r="B40" t="n">
+        <v>36</v>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.954685946946356</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1080401</v>
+      </c>
+      <c r="B41" t="n">
+        <v>60</v>
+      </c>
+      <c r="C41" t="n">
+        <v>13</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.259715618876826</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1080402</v>
+      </c>
+      <c r="B42" t="n">
+        <v>54</v>
+      </c>
+      <c r="C42" t="n">
+        <v>11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.920222344861497</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1080403</v>
+      </c>
+      <c r="B43" t="n">
+        <v>78</v>
+      </c>
+      <c r="C43" t="n">
+        <v>16</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.002641830278342</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1080404</v>
+      </c>
+      <c r="B44" t="n">
+        <v>132</v>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3.659115233343992</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1080405</v>
+      </c>
+      <c r="B45" t="n">
+        <v>30</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.931519764647184</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1080406</v>
+      </c>
+      <c r="B46" t="n">
         <v>72</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C46" t="n">
+        <v>13</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.000818824526251</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1080407</v>
+      </c>
+      <c r="B47" t="n">
+        <v>72</v>
+      </c>
+      <c r="C47" t="n">
+        <v>18</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.429101043616541</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1080408</v>
+      </c>
+      <c r="B48" t="n">
+        <v>108</v>
+      </c>
+      <c r="C48" t="n">
+        <v>18</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.514887879462671</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1080409</v>
+      </c>
+      <c r="B49" t="n">
+        <v>36</v>
+      </c>
+      <c r="C49" t="n">
+        <v>10</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.917888951062753</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1080410</v>
+      </c>
+      <c r="B50" t="n">
+        <v>174</v>
+      </c>
+      <c r="C50" t="n">
+        <v>28</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4.117266654327993</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1080411</v>
+      </c>
+      <c r="B51" t="n">
+        <v>66</v>
+      </c>
+      <c r="C51" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.360322962114331</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1080412</v>
+      </c>
+      <c r="B52" t="n">
+        <v>96</v>
+      </c>
+      <c r="C52" t="n">
+        <v>16</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.237211720254798</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1080413</v>
+      </c>
+      <c r="B53" t="n">
+        <v>84</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.077297597920296</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1080414</v>
+      </c>
+      <c r="B54" t="n">
+        <v>54</v>
+      </c>
+      <c r="C54" t="n">
+        <v>11</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.872232163655189</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1080415</v>
+      </c>
+      <c r="B55" t="n">
+        <v>132</v>
+      </c>
+      <c r="C55" t="n">
+        <v>20</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.537979992549952</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1080416</v>
+      </c>
+      <c r="B56" t="n">
+        <v>48</v>
+      </c>
+      <c r="C56" t="n">
         <v>17</v>
       </c>
-      <c r="D37" t="n">
-        <v>3.493266422019059</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>1080306</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>126</v>
-      </c>
-      <c r="C38" t="n">
-        <v>19</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3.564949352960643</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>1080307</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>102</v>
-      </c>
-      <c r="C39" t="n">
-        <v>21</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3.947123945231497</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>1080308</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>48</v>
-      </c>
-      <c r="C40" t="n">
-        <v>15</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.297995052579128</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>1080401</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>72</v>
-      </c>
-      <c r="C41" t="n">
-        <v>14</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3.394031685000725</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>1080402</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>66</v>
-      </c>
-      <c r="C42" t="n">
-        <v>12</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3.003260815253386</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>1080403</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+      <c r="D56" t="n">
+        <v>3.536576689940732</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1080417</v>
+      </c>
+      <c r="B57" t="n">
+        <v>144</v>
+      </c>
+      <c r="C57" t="n">
+        <v>22</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.795891494765734</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1080418</v>
+      </c>
+      <c r="B58" t="n">
+        <v>84</v>
+      </c>
+      <c r="C58" t="n">
+        <v>24</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.24687497608789</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1080419</v>
+      </c>
+      <c r="B59" t="n">
+        <v>108</v>
+      </c>
+      <c r="C59" t="n">
+        <v>20</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.5314629488562</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1080420</v>
+      </c>
+      <c r="B60" t="n">
         <v>90</v>
-      </c>
-      <c r="C43" t="n">
-        <v>18</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3.228132889755675</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>1080404</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>144</v>
-      </c>
-      <c r="C44" t="n">
-        <v>22</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3.768493692066283</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>1080405</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>42</v>
-      </c>
-      <c r="C45" t="n">
-        <v>14</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.167124282150162</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>1080406</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>84</v>
-      </c>
-      <c r="C46" t="n">
-        <v>15</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.20547787400305</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>1080407</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>84</v>
-      </c>
-      <c r="C47" t="n">
-        <v>20</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3.555021252017177</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>1080408</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>120</v>
-      </c>
-      <c r="C48" t="n">
-        <v>20</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3.665159986739081</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>1080409</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="n">
-        <v>11</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2.905392263947588</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>1080410</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>186</v>
-      </c>
-      <c r="C50" t="n">
-        <v>31</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4.227058766397138</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>1080411</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>75</v>
-      </c>
-      <c r="C51" t="n">
-        <v>14</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.365934319917095</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>1080412</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>108</v>
-      </c>
-      <c r="C52" t="n">
-        <v>17</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3.284448114672269</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>1080413</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>96</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3.146994134346106</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>1080414</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>66</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3.065592025913622</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>1080415</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>144</v>
-      </c>
-      <c r="C55" t="n">
-        <v>22</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3.61391616874795</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>1080416</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>60</v>
-      </c>
-      <c r="C56" t="n">
-        <v>19</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3.567214922148455</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>1080417</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>156</v>
-      </c>
-      <c r="C57" t="n">
-        <v>24</v>
-      </c>
-      <c r="D57" t="n">
-        <v>3.94096911602876</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>1080418</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>96</v>
-      </c>
-      <c r="C58" t="n">
-        <v>26</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4.293035342239748</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>1080419</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>120</v>
-      </c>
-      <c r="C59" t="n">
-        <v>21</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3.547915167083461</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>1080420</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>102</v>
       </c>
       <c r="C60" t="n">
         <v>15</v>
       </c>
       <c r="D60" t="n">
-        <v>3.137203551914508</v>
+        <v>3.033196268604526</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>1080422</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>1080422</v>
       </c>
       <c r="B61" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C61" t="n">
         <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>2.277752207045767</v>
+        <v>2.293960795232692</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>1080426</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>1080426</v>
       </c>
       <c r="B62" t="n">
         <v>120</v>
@@ -1432,506 +1310,442 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>1090101</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>1090101</v>
       </c>
       <c r="B63" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C63" t="n">
+        <v>15</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.299744655926825</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1090102</v>
+      </c>
+      <c r="B64" t="n">
+        <v>60</v>
+      </c>
+      <c r="C64" t="n">
+        <v>12</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.812954305423077</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1090103</v>
+      </c>
+      <c r="B65" t="n">
+        <v>156</v>
+      </c>
+      <c r="C65" t="n">
         <v>18</v>
       </c>
-      <c r="D63" t="n">
-        <v>3.531791456087242</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>1090102</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>72</v>
-      </c>
-      <c r="C64" t="n">
-        <v>13</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2.950263581508846</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>1090103</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>168</v>
-      </c>
-      <c r="C65" t="n">
-        <v>19</v>
-      </c>
       <c r="D65" t="n">
-        <v>3.293836075610208</v>
+        <v>3.232097803264862</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>1090104</t>
-        </is>
+      <c r="A66" s="1" t="n">
+        <v>1090104</v>
       </c>
       <c r="B66" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C66" t="n">
         <v>21</v>
       </c>
       <c r="D66" t="n">
-        <v>3.719653815092132</v>
+        <v>3.782278982865833</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>1090105</t>
-        </is>
+      <c r="A67" s="1" t="n">
+        <v>1090105</v>
       </c>
       <c r="B67" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C67" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>3.576014492257782</v>
+        <v>3.568080001088521</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>1090106</t>
-        </is>
+      <c r="A68" s="1" t="n">
+        <v>1090106</v>
       </c>
       <c r="B68" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C68" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
-        <v>4.040010484864806</v>
+        <v>3.672345257123343</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>1090107</t>
-        </is>
+      <c r="A69" s="1" t="n">
+        <v>1090107</v>
       </c>
       <c r="B69" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C69" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D69" t="n">
-        <v>3.398518936634582</v>
+        <v>3.244568213314028</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>1090109</t>
-        </is>
+      <c r="A70" s="1" t="n">
+        <v>1090109</v>
       </c>
       <c r="B70" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C70" t="n">
+        <v>12</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.084683680819713</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>1090110</v>
+      </c>
+      <c r="B71" t="n">
+        <v>84</v>
+      </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.646429796139321</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>1090111</v>
+      </c>
+      <c r="B72" t="n">
+        <v>48</v>
+      </c>
+      <c r="C72" t="n">
+        <v>16</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.612401286385719</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>1090112</v>
+      </c>
+      <c r="B73" t="n">
+        <v>102</v>
+      </c>
+      <c r="C73" t="n">
+        <v>21</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3.824245401944844</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>1090113</v>
+      </c>
+      <c r="B74" t="n">
+        <v>48</v>
+      </c>
+      <c r="C74" t="n">
         <v>14</v>
       </c>
-      <c r="D70" t="n">
-        <v>3.17467189658093</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>1090110</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>96</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2.888936605878074</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>1090111</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>60</v>
-      </c>
-      <c r="C72" t="n">
-        <v>17</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3.709318557313708</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>1090112</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>114</v>
-      </c>
-      <c r="C73" t="n">
-        <v>22</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3.884093975462493</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>1090113</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>60</v>
-      </c>
-      <c r="C74" t="n">
-        <v>16</v>
-      </c>
       <c r="D74" t="n">
-        <v>3.36642000805361</v>
+        <v>3.344171305377177</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>1090114</t>
-        </is>
+      <c r="A75" s="1" t="n">
+        <v>1090114</v>
       </c>
       <c r="B75" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C75" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D75" t="n">
-        <v>3.130799007342469</v>
+        <v>2.89407205196693</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>1090115</t>
-        </is>
+      <c r="A76" s="1" t="n">
+        <v>1090115</v>
       </c>
       <c r="B76" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C76" t="n">
         <v>15</v>
       </c>
       <c r="D76" t="n">
-        <v>3.113736153361638</v>
+        <v>3.092622626970409</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>1100101</t>
-        </is>
+      <c r="A77" s="1" t="n">
+        <v>1100101</v>
       </c>
       <c r="B77" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C77" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77" t="n">
-        <v>3.442417495781148</v>
+        <v>3.49339059643394</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>1100102</t>
-        </is>
+      <c r="A78" s="1" t="n">
+        <v>1100102</v>
       </c>
       <c r="B78" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C78" t="n">
         <v>17</v>
       </c>
       <c r="D78" t="n">
-        <v>3.736548668174416</v>
+        <v>3.630023708981772</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>1100103</t>
-        </is>
+      <c r="A79" s="1" t="n">
+        <v>1100103</v>
       </c>
       <c r="B79" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C79" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D79" t="n">
-        <v>3.786752635338371</v>
+        <v>3.692729304225696</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>1100104</t>
-        </is>
+      <c r="A80" s="1" t="n">
+        <v>1100104</v>
       </c>
       <c r="B80" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C80" t="n">
+        <v>14</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.995714157806118</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>1100105</v>
+      </c>
+      <c r="B81" t="n">
+        <v>90</v>
+      </c>
+      <c r="C81" t="n">
+        <v>14</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.322286765747579</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>1100106</v>
+      </c>
+      <c r="B82" t="n">
+        <v>78</v>
+      </c>
+      <c r="C82" t="n">
+        <v>11</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.173671922065992</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>1100107</v>
+      </c>
+      <c r="B83" t="n">
+        <v>48</v>
+      </c>
+      <c r="C83" t="n">
+        <v>13</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.356801888209676</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>1100108</v>
+      </c>
+      <c r="B84" t="n">
+        <v>60</v>
+      </c>
+      <c r="C84" t="n">
         <v>15</v>
       </c>
-      <c r="D80" t="n">
-        <v>3.02636875017345</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>1100105</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>102</v>
-      </c>
-      <c r="C81" t="n">
-        <v>17</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3.375269736412538</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>1100106</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
+      <c r="D84" t="n">
+        <v>3.296707444374544</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>1100109</v>
+      </c>
+      <c r="B85" t="n">
         <v>90</v>
       </c>
-      <c r="C82" t="n">
-        <v>12</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3.181724905039942</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>1100107</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>60</v>
-      </c>
-      <c r="C83" t="n">
+      <c r="C85" t="n">
         <v>15</v>
       </c>
-      <c r="D83" t="n">
-        <v>3.488083757908929</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>1100108</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
+      <c r="D85" t="n">
+        <v>3.142762534774964</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>1100110</v>
+      </c>
+      <c r="B86" t="n">
         <v>72</v>
       </c>
-      <c r="C84" t="n">
-        <v>17</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3.372859146222538</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>1100109</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>102</v>
-      </c>
-      <c r="C85" t="n">
-        <v>18</v>
-      </c>
-      <c r="D85" t="n">
-        <v>3.392191065294266</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>1100110</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>84</v>
-      </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>2.912074399422176</v>
+        <v>2.872107843897304</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>1100111</t>
-        </is>
+      <c r="A87" s="1" t="n">
+        <v>1100111</v>
       </c>
       <c r="B87" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C87" t="n">
         <v>20</v>
       </c>
       <c r="D87" t="n">
-        <v>3.85166214138759</v>
+        <v>3.850345405738222</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>1100112</t>
-        </is>
+      <c r="A88" s="1" t="n">
+        <v>1100112</v>
       </c>
       <c r="B88" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C88" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="n">
-        <v>3.352102669685038</v>
+        <v>3.371895669408963</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>1100114</t>
-        </is>
+      <c r="A89" s="1" t="n">
+        <v>1100114</v>
       </c>
       <c r="B89" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C89" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>3.213196653813827</v>
+        <v>3.187475543394766</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>1100115</t>
-        </is>
+      <c r="A90" s="1" t="n">
+        <v>1100115</v>
       </c>
       <c r="B90" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" t="n">
-        <v>3.755696179965208</v>
+        <v>3.698639680163107</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>1100117</t>
-        </is>
+      <c r="A91" s="1" t="n">
+        <v>1100117</v>
       </c>
       <c r="B91" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C91" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D91" t="n">
-        <v>3.892905170050062</v>
+        <v>3.66642000805361</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>1100118</t>
-        </is>
+      <c r="A92" s="1" t="n">
+        <v>1100118</v>
       </c>
       <c r="B92" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C92" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D92" t="n">
-        <v>3.571854365656767</v>
+        <v>3.288019280279689</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>1100119</t>
-        </is>
+      <c r="A93" s="1" t="n">
+        <v>1100119</v>
       </c>
       <c r="B93" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C93" t="n">
         <v>15</v>
       </c>
       <c r="D93" t="n">
-        <v>3.323603681984083</v>
+        <v>3.292878933908295</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>1110133</t>
-        </is>
+      <c r="A94" s="1" t="n">
+        <v>1110133</v>
       </c>
       <c r="B94" t="n">
         <v>42</v>
@@ -1944,10 +1758,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>1110134</t>
-        </is>
+      <c r="A95" s="1" t="n">
+        <v>1110134</v>
       </c>
       <c r="B95" t="n">
         <v>120</v>
@@ -1960,10 +1772,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>1110135</t>
-        </is>
+      <c r="A96" s="1" t="n">
+        <v>1110135</v>
       </c>
       <c r="B96" t="n">
         <v>78</v>
@@ -1976,10 +1786,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>1110136</t>
-        </is>
+      <c r="A97" s="1" t="n">
+        <v>1110136</v>
       </c>
       <c r="B97" t="n">
         <v>66</v>
@@ -1992,10 +1800,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>1110137</t>
-        </is>
+      <c r="A98" s="1" t="n">
+        <v>1110137</v>
       </c>
       <c r="B98" t="n">
         <v>42</v>
@@ -2008,10 +1814,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>1110138</t>
-        </is>
+      <c r="A99" s="1" t="n">
+        <v>1110138</v>
       </c>
       <c r="B99" t="n">
         <v>186</v>
@@ -2024,10 +1828,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>1110139</t>
-        </is>
+      <c r="A100" s="1" t="n">
+        <v>1110139</v>
       </c>
       <c r="B100" t="n">
         <v>144</v>
@@ -2040,10 +1842,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>1110140</t>
-        </is>
+      <c r="A101" s="1" t="n">
+        <v>1110140</v>
       </c>
       <c r="B101" t="n">
         <v>108</v>
@@ -2056,10 +1856,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>1110141</t>
-        </is>
+      <c r="A102" s="1" t="n">
+        <v>1110141</v>
       </c>
       <c r="B102" t="n">
         <v>114</v>
@@ -2072,10 +1870,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>1110142</t>
-        </is>
+      <c r="A103" s="1" t="n">
+        <v>1110142</v>
       </c>
       <c r="B103" t="n">
         <v>96</v>
@@ -2088,10 +1884,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>1110143</t>
-        </is>
+      <c r="A104" s="1" t="n">
+        <v>1110143</v>
       </c>
       <c r="B104" t="n">
         <v>72</v>
@@ -2104,10 +1898,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>1110144</t>
-        </is>
+      <c r="A105" s="1" t="n">
+        <v>1110144</v>
       </c>
       <c r="B105" t="n">
         <v>108</v>
@@ -2120,10 +1912,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>1110145</t>
-        </is>
+      <c r="A106" s="1" t="n">
+        <v>1110145</v>
       </c>
       <c r="B106" t="n">
         <v>78</v>
@@ -2136,10 +1926,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>1110146</t>
-        </is>
+      <c r="A107" s="1" t="n">
+        <v>1110146</v>
       </c>
       <c r="B107" t="n">
         <v>126</v>
@@ -2152,10 +1940,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>1110147</t>
-        </is>
+      <c r="A108" s="1" t="n">
+        <v>1110147</v>
       </c>
       <c r="B108" t="n">
         <v>78</v>
@@ -2168,10 +1954,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>1110148</t>
-        </is>
+      <c r="A109" s="1" t="n">
+        <v>1110148</v>
       </c>
       <c r="B109" t="n">
         <v>78</v>
@@ -2184,10 +1968,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>1110149</t>
-        </is>
+      <c r="A110" s="1" t="n">
+        <v>1110149</v>
       </c>
       <c r="B110" t="n">
         <v>36</v>
@@ -2200,10 +1982,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>1110150</t>
-        </is>
+      <c r="A111" s="1" t="n">
+        <v>1110150</v>
       </c>
       <c r="B111" t="n">
         <v>36</v>
@@ -2216,10 +1996,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>1110151</t>
-        </is>
+      <c r="A112" s="1" t="n">
+        <v>1110151</v>
       </c>
       <c r="B112" t="n">
         <v>138</v>
@@ -2232,10 +2010,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>1110152</t>
-        </is>
+      <c r="A113" s="1" t="n">
+        <v>1110152</v>
       </c>
       <c r="B113" t="n">
         <v>102</v>
@@ -2248,10 +2024,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>1110153</t>
-        </is>
+      <c r="A114" s="1" t="n">
+        <v>1110153</v>
       </c>
       <c r="B114" t="n">
         <v>66</v>
@@ -2264,10 +2038,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>1110154</t>
-        </is>
+      <c r="A115" s="1" t="n">
+        <v>1110154</v>
       </c>
       <c r="B115" t="n">
         <v>60</v>
@@ -2280,10 +2052,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>1110156</t>
-        </is>
+      <c r="A116" s="1" t="n">
+        <v>1110156</v>
       </c>
       <c r="B116" t="n">
         <v>144</v>
@@ -2296,10 +2066,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>1110158</t>
-        </is>
+      <c r="A117" s="1" t="n">
+        <v>1110158</v>
       </c>
       <c r="B117" t="n">
         <v>180</v>
@@ -2312,10 +2080,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>1110159</t>
-        </is>
+      <c r="A118" s="1" t="n">
+        <v>1110159</v>
       </c>
       <c r="B118" t="n">
         <v>36</v>
@@ -2328,10 +2094,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>1110160</t>
-        </is>
+      <c r="A119" s="1" t="n">
+        <v>1110160</v>
       </c>
       <c r="B119" t="n">
         <v>42</v>
@@ -2344,521 +2108,459 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>1110201</t>
-        </is>
+      <c r="A120" s="1" t="n">
+        <v>1110201</v>
       </c>
       <c r="B120" t="n">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C120" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D120" t="n">
-        <v>3.028943091871744</v>
+        <v>3.033639144184285</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>1110202</t>
-        </is>
+      <c r="A121" s="1" t="n">
+        <v>1110202</v>
       </c>
       <c r="B121" t="n">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C121" t="n">
         <v>21</v>
       </c>
       <c r="D121" t="n">
-        <v>3.320123430910254</v>
+        <v>3.293194060330064</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>1110203</t>
-        </is>
+      <c r="A122" s="1" t="n">
+        <v>1110203</v>
       </c>
       <c r="B122" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C122" t="n">
         <v>14</v>
       </c>
       <c r="D122" t="n">
-        <v>3.20214639525173</v>
+        <v>3.232241329849085</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>1110204</t>
-        </is>
+      <c r="A123" s="1" t="n">
+        <v>1110204</v>
       </c>
       <c r="B123" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C123" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D123" t="n">
-        <v>3.399725776197609</v>
+        <v>3.347122873075346</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>1110205</t>
-        </is>
+      <c r="A124" s="1" t="n">
+        <v>1110205</v>
       </c>
       <c r="B124" t="n">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C124" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124" t="n">
-        <v>3.977504305123007</v>
+        <v>3.895780816940014</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>1110206</t>
-        </is>
+      <c r="A125" s="1" t="n">
+        <v>1110206</v>
       </c>
       <c r="B125" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C125" t="n">
+        <v>7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.457425813763051</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>1110207</v>
+      </c>
+      <c r="B126" t="n">
+        <v>84</v>
+      </c>
+      <c r="C126" t="n">
+        <v>16</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3.182108938394548</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>1110208</v>
+      </c>
+      <c r="B127" t="n">
+        <v>84</v>
+      </c>
+      <c r="C127" t="n">
         <v>8</v>
       </c>
-      <c r="D125" t="n">
-        <v>2.640707150985978</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>1110207</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>96</v>
-      </c>
-      <c r="C126" t="n">
-        <v>18</v>
-      </c>
-      <c r="D126" t="n">
-        <v>3.272562898999555</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>1110208</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>96</v>
-      </c>
-      <c r="C127" t="n">
-        <v>10</v>
-      </c>
       <c r="D127" t="n">
-        <v>2.317880555714975</v>
+        <v>2.162397431229676</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>1110209</t>
-        </is>
+      <c r="A128" s="1" t="n">
+        <v>1110209</v>
       </c>
       <c r="B128" t="n">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C128" t="n">
         <v>16</v>
       </c>
       <c r="D128" t="n">
-        <v>3.531692363904056</v>
+        <v>3.508251752393166</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>1110210</t>
-        </is>
+      <c r="A129" s="1" t="n">
+        <v>1110210</v>
       </c>
       <c r="B129" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C129" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D129" t="n">
-        <v>3.016431783329268</v>
+        <v>3.025038046881323</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>1110211</t>
-        </is>
+      <c r="A130" s="1" t="n">
+        <v>1110211</v>
       </c>
       <c r="B130" t="n">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C130" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D130" t="n">
-        <v>3.366323983999865</v>
+        <v>3.349579616799363</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>1110212</t>
-        </is>
+      <c r="A131" s="1" t="n">
+        <v>1110212</v>
       </c>
       <c r="B131" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C131" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D131" t="n">
-        <v>3.519823895302629</v>
+        <v>3.41790141754752</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>1110213</t>
-        </is>
+      <c r="A132" s="1" t="n">
+        <v>1110213</v>
       </c>
       <c r="B132" t="n">
+        <v>90</v>
+      </c>
+      <c r="C132" t="n">
+        <v>13</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2.884718397532441</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>1110214</v>
+      </c>
+      <c r="B133" t="n">
         <v>102</v>
-      </c>
-      <c r="C132" t="n">
-        <v>14</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2.980661605090533</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>1110214</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>114</v>
       </c>
       <c r="C133" t="n">
         <v>17</v>
       </c>
       <c r="D133" t="n">
-        <v>3.442079477112735</v>
+        <v>3.493423382723373</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>1110215</t>
-        </is>
+      <c r="A134" s="1" t="n">
+        <v>1110215</v>
       </c>
       <c r="B134" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C134" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D134" t="n">
-        <v>3.442553073704072</v>
+        <v>3.292879592788839</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>1110216</t>
-        </is>
+      <c r="A135" s="1" t="n">
+        <v>1110216</v>
       </c>
       <c r="B135" t="n">
+        <v>54</v>
+      </c>
+      <c r="C135" t="n">
+        <v>8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.510755599284617</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>1110217</v>
+      </c>
+      <c r="B136" t="n">
         <v>66</v>
       </c>
-      <c r="C135" t="n">
-        <v>10</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2.762877357712241</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>1110217</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>78</v>
-      </c>
       <c r="C136" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D136" t="n">
-        <v>3.098305554552397</v>
+        <v>2.918639660698407</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>1110218</t>
-        </is>
+      <c r="A137" s="1" t="n">
+        <v>1110218</v>
       </c>
       <c r="B137" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C137" t="n">
         <v>13</v>
       </c>
       <c r="D137" t="n">
-        <v>3.313298374640764</v>
+        <v>3.35256491349061</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>1110219</t>
-        </is>
+      <c r="A138" s="1" t="n">
+        <v>1110219</v>
       </c>
       <c r="B138" t="n">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C138" t="n">
         <v>17</v>
       </c>
       <c r="D138" t="n">
-        <v>3.452733828693662</v>
+        <v>3.487703243816542</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>1110220</t>
-        </is>
+      <c r="A139" s="1" t="n">
+        <v>1110220</v>
       </c>
       <c r="B139" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3.101227480952955</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>1110221</v>
+      </c>
+      <c r="B140" t="n">
+        <v>18</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.377443751081734</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>1110222</v>
+      </c>
+      <c r="B141" t="n">
+        <v>72</v>
+      </c>
+      <c r="C141" t="n">
+        <v>17</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3.506168752250356</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>1110223</v>
+      </c>
+      <c r="B142" t="n">
+        <v>108</v>
+      </c>
+      <c r="C142" t="n">
+        <v>20</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3.769673364616709</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>1110224</v>
+      </c>
+      <c r="B143" t="n">
+        <v>48</v>
+      </c>
+      <c r="C143" t="n">
+        <v>17</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3.486978658966205</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>1110225</v>
+      </c>
+      <c r="B144" t="n">
+        <v>66</v>
+      </c>
+      <c r="C144" t="n">
+        <v>10</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.772251084642613</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>1110226</v>
+      </c>
+      <c r="B145" t="n">
+        <v>42</v>
+      </c>
+      <c r="C145" t="n">
         <v>11</v>
       </c>
-      <c r="D139" t="n">
-        <v>3.2121359492836</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>1110221</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
+      <c r="D145" t="n">
+        <v>3.27817486279135</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>1110227</v>
+      </c>
+      <c r="B146" t="n">
         <v>30</v>
       </c>
-      <c r="C140" t="n">
-        <v>10</v>
-      </c>
-      <c r="D140" t="n">
-        <v>2.907751647240616</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>1110222</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
+      <c r="C146" t="n">
+        <v>9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.788594761554029</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>1110228</v>
+      </c>
+      <c r="B147" t="n">
+        <v>60</v>
+      </c>
+      <c r="C147" t="n">
+        <v>11</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.875669602698787</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>1110229</v>
+      </c>
+      <c r="B148" t="n">
         <v>84</v>
-      </c>
-      <c r="C141" t="n">
-        <v>18</v>
-      </c>
-      <c r="D141" t="n">
-        <v>3.581563674915721</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>1110223</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>120</v>
-      </c>
-      <c r="C142" t="n">
-        <v>21</v>
-      </c>
-      <c r="D142" t="n">
-        <v>3.734294066994259</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>1110224</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>60</v>
-      </c>
-      <c r="C143" t="n">
-        <v>18</v>
-      </c>
-      <c r="D143" t="n">
-        <v>3.430437571876007</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>1110225</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>78</v>
-      </c>
-      <c r="C144" t="n">
-        <v>12</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2.890969716250205</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>1110226</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>54</v>
-      </c>
-      <c r="C145" t="n">
-        <v>13</v>
-      </c>
-      <c r="D145" t="n">
-        <v>3.424360253423389</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>1110227</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>42</v>
-      </c>
-      <c r="C146" t="n">
-        <v>11</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2.903999700642041</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>1110228</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>72</v>
-      </c>
-      <c r="C147" t="n">
-        <v>16</v>
-      </c>
-      <c r="D147" t="n">
-        <v>3.190585685612858</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>1110229</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>96</v>
       </c>
       <c r="C148" t="n">
         <v>15</v>
       </c>
       <c r="D148" t="n">
-        <v>3.302621304603797</v>
+        <v>3.274208416661262</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>1110230</t>
-        </is>
+      <c r="A149" s="1" t="n">
+        <v>1110230</v>
       </c>
       <c r="B149" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C149" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D149" t="n">
-        <v>3.089111847538128</v>
+        <v>3.148945541927023</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>1100116</t>
-        </is>
+      <c r="A150" s="1" t="n">
+        <v>1100116</v>
       </c>
       <c r="B150" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C150" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>3.267117875964918</v>
+        <v>3.109685696912064</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>1010101</t>
+          <t>1070101</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>12</v>
       </c>
       <c r="C151" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>1.584962500721156</v>
+        <v>2.751629167387823</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>1010102</t>
+          <t>1070102</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2874,55 +2576,55 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>1020104</t>
+          <t>1070103</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>12</v>
       </c>
       <c r="C153" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D153" t="n">
-        <v>2.125814583693912</v>
+        <v>2.688721875540867</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>1020107</t>
+          <t>1070105</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>12</v>
       </c>
       <c r="C154" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>2.522055208874201</v>
+        <v>2.41829583405449</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>1030101</t>
+          <t>1070106</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>12</v>
       </c>
       <c r="C155" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D155" t="n">
-        <v>2.792481250360578</v>
+        <v>2.084962500721156</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>1030104</t>
+          <t>1070107</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2932,36 +2634,36 @@
         <v>5</v>
       </c>
       <c r="D156" t="n">
-        <v>2.125814583693912</v>
+        <v>2.084962500721156</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>1030105</t>
+          <t>1070109</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>12</v>
       </c>
       <c r="C157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D157" t="n">
-        <v>2.084962500721156</v>
+        <v>1.855388542207534</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>1040104</t>
+          <t>1070110</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>12</v>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D158" t="n">
         <v>2.751629167387823</v>
@@ -2970,23 +2672,23 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>1040106</t>
+          <t>1070111</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>12</v>
       </c>
       <c r="C159" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D159" t="n">
-        <v>1.959147917027245</v>
+        <v>2.125814583693912</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>1050101</t>
+          <t>1070112</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2996,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>2.751629167387823</v>
+        <v>2.855388542207534</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>1050102</t>
+          <t>1070113</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -3012,157 +2714,157 @@
         <v>7</v>
       </c>
       <c r="D161" t="n">
-        <v>2.584962500721156</v>
+        <v>2.688721875540867</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>1050104</t>
+          <t>1070114</t>
         </is>
       </c>
       <c r="B162" t="n">
         <v>12</v>
       </c>
       <c r="C162" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D162" t="n">
-        <v>3.084962500721156</v>
+        <v>2.855388542207534</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>1050105</t>
+          <t>1070115</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>12</v>
       </c>
       <c r="C163" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>2.855388542207534</v>
+        <v>2.459147917027245</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>1060101</t>
+          <t>1070116</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>12</v>
       </c>
       <c r="C164" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>2.188721875540867</v>
+        <v>2.459147917027245</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>1060104</t>
+          <t>1080101</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>12</v>
       </c>
       <c r="C165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>2.084962500721156</v>
+        <v>2.355388542207534</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>1060105</t>
+          <t>1080102</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>12</v>
       </c>
       <c r="C166" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D166" t="n">
-        <v>2.459147917027245</v>
+        <v>2.625814583693912</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>1060106a</t>
+          <t>1080103</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D167" t="n">
-        <v>1.91829583405449</v>
+        <v>2.855388542207534</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>1060106b</t>
+          <t>1080104</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C168" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D168" t="n">
-        <v>1.91829583405449</v>
+        <v>2.084962500721156</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>1070116</t>
+          <t>1080105</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>12</v>
       </c>
       <c r="C169" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D169" t="n">
-        <v>2.459147917027245</v>
+        <v>2.084962500721156</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>1080421</t>
+          <t>1080106</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>12</v>
       </c>
       <c r="C170" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>2.792481250360578</v>
+        <v>1.959147917027245</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>1080423</t>
+          <t>1080107</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -3172,77 +2874,77 @@
         <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>2.751629167387823</v>
+        <v>2.792481250360578</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>1110301</t>
+          <t>1080108</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>12</v>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>2.41829583405449</v>
+        <v>2.855388542207534</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>1110302</t>
+          <t>1080109</t>
         </is>
       </c>
       <c r="B173" t="n">
         <v>12</v>
       </c>
       <c r="C173" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>2.584962500721156</v>
+        <v>2.355388542207534</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>1110303</t>
+          <t>1080110</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>12</v>
       </c>
       <c r="C174" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D174" t="n">
-        <v>2.522055208874201</v>
+        <v>1.959147917027245</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>1110304</t>
+          <t>1080111</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>12</v>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D175" t="n">
-        <v>1.584962500721156</v>
+        <v>2.584962500721156</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>1110305</t>
+          <t>1080112</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -3258,87 +2960,87 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>1110306</t>
+          <t>1080113</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>12</v>
       </c>
       <c r="C177" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D177" t="n">
-        <v>2.688721875540867</v>
+        <v>2.084962500721156</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>1110307</t>
+          <t>1080114</t>
         </is>
       </c>
       <c r="B178" t="n">
         <v>12</v>
       </c>
       <c r="C178" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D178" t="n">
-        <v>2.688721875540867</v>
+        <v>2.188721875540867</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>1110308</t>
+          <t>1080201</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>12</v>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D179" t="n">
-        <v>1.584962500721156</v>
+        <v>1.855388542207534</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>1110309</t>
+          <t>1080202</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>12</v>
       </c>
       <c r="C180" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D180" t="n">
-        <v>2.355388542207534</v>
+        <v>2.688721875540867</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>1110310</t>
+          <t>1080203</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>12</v>
       </c>
       <c r="C181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D181" t="n">
-        <v>1.855388542207534</v>
+        <v>2.084962500721156</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>1110311</t>
+          <t>1080301</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -3348,45 +3050,45 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>2.251629167387823</v>
+        <v>2.355388542207534</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>1110312</t>
+          <t>1080302</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>12</v>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D183" t="n">
-        <v>2.355388542207534</v>
+        <v>2.084962500721156</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>1110313</t>
+          <t>1080303</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>12</v>
       </c>
       <c r="C184" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>2.188721875540867</v>
+        <v>2.355388542207534</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>1110314</t>
+          <t>1080304</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -3402,71 +3104,71 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>1110315</t>
+          <t>1080305</t>
         </is>
       </c>
       <c r="B186" t="n">
         <v>12</v>
       </c>
       <c r="C186" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D186" t="n">
-        <v>2.459147917027245</v>
+        <v>2.084962500721156</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>1110316</t>
+          <t>1080306</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>12</v>
       </c>
       <c r="C187" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>2.522055208874201</v>
+        <v>2.459147917027245</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>1110317</t>
+          <t>1080307</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>12</v>
       </c>
       <c r="C188" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>2.584962500721156</v>
+        <v>2.918295834054489</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>1110318</t>
+          <t>1080308</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>12</v>
       </c>
       <c r="C189" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="n">
-        <v>2.855388542207534</v>
+        <v>3.084962500721156</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>1110319</t>
+          <t>1080401</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -3476,45 +3178,45 @@
         <v>7</v>
       </c>
       <c r="D190" t="n">
-        <v>2.584962500721156</v>
+        <v>2.625814583693912</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>1110320</t>
+          <t>1080402</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>12</v>
       </c>
       <c r="C191" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D191" t="n">
-        <v>2.125814583693912</v>
+        <v>2.688721875540867</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>1110321</t>
+          <t>1080403</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>12</v>
       </c>
       <c r="C192" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>2.751629167387823</v>
+        <v>2.355388542207534</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>1110322</t>
+          <t>1080404</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -3524,87 +3226,1719 @@
         <v>7</v>
       </c>
       <c r="D193" t="n">
-        <v>2.522055208874201</v>
+        <v>2.688721875540867</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>1110323</t>
+          <t>1080405</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>12</v>
       </c>
       <c r="C194" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D194" t="n">
-        <v>2.855388542207534</v>
+        <v>2.625814583693912</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>1110324</t>
+          <t>1080406</t>
         </is>
       </c>
       <c r="B195" t="n">
         <v>12</v>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>2.355388542207534</v>
+        <v>2.855388542207534</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>1110325</t>
+          <t>1080407</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>12</v>
       </c>
       <c r="C196" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>2.522055208874201</v>
+        <v>2.459147917027245</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>1110326</t>
+          <t>1080408</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>12</v>
       </c>
       <c r="C197" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D197" t="n">
-        <v>2.084962500721156</v>
+        <v>2.855388542207534</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>1060106</t>
+          <t>1080409</t>
         </is>
       </c>
       <c r="B198" t="n">
+        <v>12</v>
+      </c>
+      <c r="C198" t="n">
         <v>6</v>
       </c>
-      <c r="C198" t="n">
+      <c r="D198" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>1080410</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>12</v>
+      </c>
+      <c r="C199" t="n">
+        <v>8</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.792481250360578</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>1080411</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2.197159723424149</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>1080412</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>12</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2.522055208874201</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>1080413</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>12</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2.125814583693912</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>1080414</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>12</v>
+      </c>
+      <c r="C203" t="n">
+        <v>7</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.688721875540867</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>1080415</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>12</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>1080416</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>12</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2.125814583693912</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>1080417</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>12</v>
+      </c>
+      <c r="C206" t="n">
+        <v>7</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2.625814583693912</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>1080418</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>12</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.855388542207534</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>1080419</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>12</v>
+      </c>
+      <c r="C208" t="n">
+        <v>6</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2.41829583405449</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>1080420</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>12</v>
+      </c>
+      <c r="C209" t="n">
         <v>4</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D209" t="n">
+        <v>1.855388542207534</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>1080421</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>12</v>
+      </c>
+      <c r="C210" t="n">
+        <v>8</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2.792481250360578</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>1080422</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>12</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4</v>
+      </c>
+      <c r="D211" t="n">
         <v>1.91829583405449</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>1080423</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>12</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2.751629167387823</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>1090101</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>12</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2.229573958513623</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>1090102</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>12</v>
+      </c>
+      <c r="C214" t="n">
+        <v>7</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2.625814583693912</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>1090103</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>12</v>
+      </c>
+      <c r="C215" t="n">
+        <v>7</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2.688721875540867</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>1090104</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>12</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.91829583405449</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>1090105</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>12</v>
+      </c>
+      <c r="C217" t="n">
+        <v>7</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2.584962500721156</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>1090106</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>12</v>
+      </c>
+      <c r="C218" t="n">
+        <v>8</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2.855388542207534</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>1090107</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>12</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2.91829583405449</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>1090109</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>12</v>
+      </c>
+      <c r="C220" t="n">
+        <v>7</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2.522055208874201</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>1090110</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>12</v>
+      </c>
+      <c r="C221" t="n">
+        <v>6</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.41829583405449</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>1090111</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>12</v>
+      </c>
+      <c r="C222" t="n">
+        <v>10</v>
+      </c>
+      <c r="D222" t="n">
+        <v>3.251629167387823</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>1090112</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>12</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2.125814583693912</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>1090113</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>12</v>
+      </c>
+      <c r="C224" t="n">
+        <v>7</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.522055208874201</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>1090114</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>12</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2.188721875540867</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>1090115</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>12</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2.188721875540867</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>1100101</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>12</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.855388542207534</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>1100102</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>12</v>
+      </c>
+      <c r="C228" t="n">
+        <v>7</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2.584962500721156</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>1100103</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>12</v>
+      </c>
+      <c r="C229" t="n">
+        <v>7</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2.688721875540867</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>1100104</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>12</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2.125814583693912</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>1100105</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>12</v>
+      </c>
+      <c r="C231" t="n">
+        <v>6</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2.251629167387823</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>1100106</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>12</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.855388542207534</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>1100107</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>12</v>
+      </c>
+      <c r="C233" t="n">
+        <v>8</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2.918295834054489</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>1100108</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>12</v>
+      </c>
+      <c r="C234" t="n">
+        <v>6</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2.396240625180289</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>1100109</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>12</v>
+      </c>
+      <c r="C235" t="n">
+        <v>7</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2.625814583693912</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>1100110</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>12</v>
+      </c>
+      <c r="C236" t="n">
+        <v>5</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2.084962500721156</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>1100111</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>12</v>
+      </c>
+      <c r="C237" t="n">
+        <v>6</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>1100112</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>12</v>
+      </c>
+      <c r="C238" t="n">
+        <v>5</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2.084962500721156</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>1100114</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>12</v>
+      </c>
+      <c r="C239" t="n">
+        <v>5</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2.084962500721156</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>1100115</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>9</v>
+      </c>
+      <c r="C240" t="n">
+        <v>6</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2.419381945646371</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>1100116</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>12</v>
+      </c>
+      <c r="C241" t="n">
+        <v>6</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2.396240625180289</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>1100117</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>12</v>
+      </c>
+      <c r="C242" t="n">
+        <v>8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2.855388542207534</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>1100118</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>12</v>
+      </c>
+      <c r="C243" t="n">
+        <v>7</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2.625814583693912</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>1100119</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>12</v>
+      </c>
+      <c r="C244" t="n">
+        <v>7</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2.625814583693912</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>1110201</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>12</v>
+      </c>
+      <c r="C245" t="n">
+        <v>5</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2.084962500721156</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>1110202</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>12</v>
+      </c>
+      <c r="C246" t="n">
+        <v>5</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2.125814583693912</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>1110203</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>12</v>
+      </c>
+      <c r="C247" t="n">
+        <v>5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2.084962500721156</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>1110204</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>12</v>
+      </c>
+      <c r="C248" t="n">
+        <v>5</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2.084962500721156</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>1110205</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>12</v>
+      </c>
+      <c r="C249" t="n">
+        <v>7</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2.625814583693912</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>1110206</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>12</v>
+      </c>
+      <c r="C250" t="n">
+        <v>6</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>1110207</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>12</v>
+      </c>
+      <c r="C251" t="n">
+        <v>6</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>1110208</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>12</v>
+      </c>
+      <c r="C252" t="n">
+        <v>6</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2.251629167387823</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>1110209</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>12</v>
+      </c>
+      <c r="C253" t="n">
+        <v>6</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2.41829583405449</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>1110210</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>12</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1.855388542207534</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>1110211</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>12</v>
+      </c>
+      <c r="C255" t="n">
+        <v>5</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2.188721875540867</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>1110212</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>12</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2.125814583693912</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>1110213</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>12</v>
+      </c>
+      <c r="C257" t="n">
+        <v>6</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>1110214</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>12</v>
+      </c>
+      <c r="C258" t="n">
+        <v>4</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.855388542207534</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>1110215</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>12</v>
+      </c>
+      <c r="C259" t="n">
+        <v>6</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2.41829583405449</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>1110216</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>12</v>
+      </c>
+      <c r="C260" t="n">
+        <v>7</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2.584962500721156</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>1110217</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>12</v>
+      </c>
+      <c r="C261" t="n">
+        <v>7</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2.688721875540867</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>1110218</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>12</v>
+      </c>
+      <c r="C262" t="n">
+        <v>4</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.959147917027245</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>1110219</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>12</v>
+      </c>
+      <c r="C263" t="n">
+        <v>4</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.91829583405449</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>1110220</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>12</v>
+      </c>
+      <c r="C264" t="n">
+        <v>5</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2.125814583693912</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>1110221</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>12</v>
+      </c>
+      <c r="C265" t="n">
+        <v>6</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>1110222</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>12</v>
+      </c>
+      <c r="C266" t="n">
+        <v>6</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>1110223</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>12</v>
+      </c>
+      <c r="C267" t="n">
+        <v>5</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2.084962500721156</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>1110224</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>12</v>
+      </c>
+      <c r="C268" t="n">
+        <v>6</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2.41829583405449</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>1110225</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>12</v>
+      </c>
+      <c r="C269" t="n">
+        <v>7</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2.522055208874201</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>1110226</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>12</v>
+      </c>
+      <c r="C270" t="n">
+        <v>6</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>1110227</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>12</v>
+      </c>
+      <c r="C271" t="n">
+        <v>5</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2.125814583693912</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>1110228</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>12</v>
+      </c>
+      <c r="C272" t="n">
+        <v>9</v>
+      </c>
+      <c r="D272" t="n">
+        <v>3.022055208874201</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>1110229</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>12</v>
+      </c>
+      <c r="C273" t="n">
+        <v>7</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2.625814583693912</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>1110230</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>12</v>
+      </c>
+      <c r="C274" t="n">
+        <v>4</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1.855388542207534</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>1110301</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>12</v>
+      </c>
+      <c r="C275" t="n">
+        <v>6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2.41829583405449</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>1110302</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>12</v>
+      </c>
+      <c r="C276" t="n">
+        <v>7</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.584962500721156</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>1110303</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>12</v>
+      </c>
+      <c r="C277" t="n">
+        <v>7</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2.522055208874201</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>1110304</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>12</v>
+      </c>
+      <c r="C278" t="n">
+        <v>3</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.584962500721156</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>1110305</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>12</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2.459147917027245</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>1110306</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>12</v>
+      </c>
+      <c r="C280" t="n">
+        <v>7</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2.688721875540867</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>1110307</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>12</v>
+      </c>
+      <c r="C281" t="n">
+        <v>7</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2.688721875540867</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>1110308</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>12</v>
+      </c>
+      <c r="C282" t="n">
+        <v>3</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.584962500721156</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>1110309</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>12</v>
+      </c>
+      <c r="C283" t="n">
+        <v>6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>1110310</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>12</v>
+      </c>
+      <c r="C284" t="n">
+        <v>4</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.855388542207534</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>1110311</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>12</v>
+      </c>
+      <c r="C285" t="n">
+        <v>6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2.251629167387823</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>1110312</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>12</v>
+      </c>
+      <c r="C286" t="n">
+        <v>6</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>1110313</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>12</v>
+      </c>
+      <c r="C287" t="n">
+        <v>5</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2.188721875540867</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>1110314</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>12</v>
+      </c>
+      <c r="C288" t="n">
+        <v>5</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2.084962500721156</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>1110315</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>12</v>
+      </c>
+      <c r="C289" t="n">
+        <v>6</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2.459147917027245</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>1110316</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>12</v>
+      </c>
+      <c r="C290" t="n">
+        <v>7</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2.522055208874201</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>1110317</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>12</v>
+      </c>
+      <c r="C291" t="n">
+        <v>7</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2.584962500721156</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>1110318</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>12</v>
+      </c>
+      <c r="C292" t="n">
+        <v>8</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2.855388542207534</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>1110319</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>12</v>
+      </c>
+      <c r="C293" t="n">
+        <v>7</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2.584962500721156</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>1110320</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>12</v>
+      </c>
+      <c r="C294" t="n">
+        <v>5</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2.125814583693912</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>1110321</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>12</v>
+      </c>
+      <c r="C295" t="n">
+        <v>8</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2.751629167387823</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>1110322</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>12</v>
+      </c>
+      <c r="C296" t="n">
+        <v>7</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.522055208874201</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>1110323</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>12</v>
+      </c>
+      <c r="C297" t="n">
+        <v>8</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2.855388542207534</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>1110324</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>12</v>
+      </c>
+      <c r="C298" t="n">
+        <v>6</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2.355388542207534</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>1110325</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>12</v>
+      </c>
+      <c r="C299" t="n">
+        <v>7</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.522055208874201</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>1110326</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>12</v>
+      </c>
+      <c r="C300" t="n">
+        <v>5</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2.084962500721156</v>
       </c>
     </row>
   </sheetData>
